--- a/番茄学习/9月番茄工作法 .xlsx
+++ b/番茄学习/9月番茄工作法 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="9月14日" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="12月9日" sheetId="4" r:id="rId4"/>
     <sheet name="12月10日" sheetId="5" r:id="rId5"/>
     <sheet name="12月20日" sheetId="6" r:id="rId6"/>
+    <sheet name="2月" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="99">
   <si>
     <t>活动清单(12月6日)</t>
   </si>
@@ -36,19 +37,16 @@
     <t>预估番茄数量</t>
   </si>
   <si>
-    <t>小程序问题总结</t>
+    <t>gitlabCICD</t>
   </si>
   <si>
     <t>Q</t>
   </si>
   <si>
-    <t>小程序任务派发</t>
+    <t>js题目</t>
   </si>
   <si>
     <t>QQ</t>
-  </si>
-  <si>
-    <t>三亚登录</t>
   </si>
   <si>
     <t>js面试笔记学习</t>
@@ -483,6 +481,75 @@
   <si>
     <t>今日待办(12月20日)</t>
   </si>
+  <si>
+    <t>活动清单(2月8日)</t>
+  </si>
+  <si>
+    <t>可用番茄数:11</t>
+  </si>
+  <si>
+    <t>微信小程序websocket</t>
+  </si>
+  <si>
+    <t>●●●●</t>
+  </si>
+  <si>
+    <t>●●●●●</t>
+  </si>
+  <si>
+    <t>算法</t>
+  </si>
+  <si>
+    <t>●</t>
+  </si>
+  <si>
+    <t>小程序bug</t>
+  </si>
+  <si>
+    <t>●●</t>
+  </si>
+  <si>
+    <t>leetcode</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>大屏适配</t>
+  </si>
+  <si>
+    <t>活动清单(2月9日)</t>
+  </si>
+  <si>
+    <t>js拷贝</t>
+  </si>
+  <si>
+    <t>●●●</t>
+  </si>
+  <si>
+    <t>js拷贝上机</t>
+  </si>
+  <si>
+    <t>react</t>
+  </si>
+  <si>
+    <t>活动清单(2月10日)</t>
+  </si>
+  <si>
+    <t>AOP</t>
+  </si>
+  <si>
+    <t>活动清单(2月13日)</t>
+  </si>
+  <si>
+    <t>bug</t>
+  </si>
+  <si>
+    <t>js</t>
+  </si>
+  <si>
+    <t>面试题</t>
+  </si>
 </sst>
 </file>
 
@@ -513,6 +580,19 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Wingdings"/>
       <charset val="134"/>
     </font>
@@ -521,13 +601,6 @@
       <color theme="1"/>
       <name val="Wingdings 2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -672,12 +745,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1080,10 +1147,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1092,34 +1159,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1131,98 +1195,101 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1232,28 +1299,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1262,25 +1356,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1288,9 +1373,6 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1619,8 +1701,8 @@
   <sheetPr/>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15.6"/>
@@ -1639,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1647,7 +1729,7 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1658,10 +1740,10 @@
       <c r="A3" s="7">
         <v>0.395833333333333</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1669,10 +1751,10 @@
       <c r="A4" s="7">
         <v>0.416666666666667</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="19" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1680,10 +1762,10 @@
       <c r="A5" s="7">
         <v>0.458333333333333</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1691,114 +1773,114 @@
       <c r="A6" s="7">
         <v>0.583333333333333</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="5"/>
+      <c r="A10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="17"/>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
-        <v>17</v>
+      <c r="B12" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
-        <v>18</v>
+      <c r="B13" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="B15" s="17"/>
       <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="21"/>
     </row>
     <row r="17" ht="16.35" spans="1:3">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
+      <c r="C17" s="22"/>
     </row>
     <row r="18" ht="16.35"/>
     <row r="19" spans="1:5">
-      <c r="A19" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
+      <c r="A19" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="E20" s="6"/>
     </row>
@@ -1806,99 +1888,99 @@
       <c r="A21" s="7">
         <v>0.440972222222222</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="7">
         <v>0.461805555555556</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="7">
         <v>0.65625</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4"/>
-      <c r="B24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="B24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4"/>
-      <c r="B25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="B25" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4"/>
-      <c r="B26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="B26" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="C29" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="D29" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="E29" s="21" t="s">
         <v>34</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="30" ht="16.35" spans="1:5">
@@ -1906,88 +1988,88 @@
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
+      <c r="E30" s="22"/>
     </row>
     <row r="31" ht="16.35"/>
     <row r="32" spans="1:10">
-      <c r="A32" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="18"/>
+      <c r="A32" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="5" t="s">
+      <c r="G33" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="H33" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="I33" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="J33" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="J33" s="23" t="s">
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="26">
+        <v>44536</v>
+      </c>
+      <c r="B34" s="27">
+        <v>0.440972222222222</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="20">
-        <v>44536</v>
-      </c>
-      <c r="B34" s="21">
-        <v>0.440972222222222</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="17">
+        <v>1</v>
+      </c>
+      <c r="F34" s="17">
+        <v>1</v>
+      </c>
+      <c r="G34" s="17">
+        <v>0</v>
+      </c>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="28"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="11"/>
+      <c r="B35" s="29">
+        <v>0.461805555555556</v>
+      </c>
+      <c r="D35" t="s">
         <v>25</v>
-      </c>
-      <c r="E34" s="5">
-        <v>1</v>
-      </c>
-      <c r="F34" s="5">
-        <v>1</v>
-      </c>
-      <c r="G34" s="5">
-        <v>0</v>
-      </c>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="23"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="22"/>
-      <c r="B35" s="24">
-        <v>0.461805555555556</v>
-      </c>
-      <c r="D35" t="s">
-        <v>26</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -2001,17 +2083,17 @@
       <c r="H35">
         <v>1</v>
       </c>
-      <c r="J35" s="23" t="s">
-        <v>46</v>
+      <c r="J35" s="28" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="22"/>
-      <c r="B36" s="24">
+      <c r="A36" s="11"/>
+      <c r="B36" s="29">
         <v>0.65625</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E36">
         <v>4</v>
@@ -2022,7 +2104,7 @@
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="J36" s="23"/>
+      <c r="J36" s="28"/>
     </row>
     <row r="38" spans="6:6">
       <c r="F38">
@@ -2049,7 +2131,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15.6"/>
@@ -2064,18 +2146,18 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2086,111 +2168,111 @@
       <c r="A3" s="7">
         <v>0.395833333333333</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:3">
       <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>50</v>
+      <c r="B4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:3">
       <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>51</v>
+      <c r="B5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:3">
       <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:3">
       <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:3">
       <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="6"/>
     </row>
     <row r="9" customFormat="1" spans="1:3">
-      <c r="A9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="5"/>
+      <c r="A9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="17"/>
       <c r="C9" s="6"/>
     </row>
     <row r="10" customFormat="1" spans="1:3">
       <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="6"/>
     </row>
     <row r="11" customFormat="1" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="B11" s="17"/>
       <c r="C11" s="6"/>
     </row>
     <row r="12" customFormat="1" spans="1:3">
       <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="21"/>
     </row>
     <row r="13" customFormat="1" ht="16.35" spans="1:3">
       <c r="A13" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
+      <c r="C13" s="22"/>
     </row>
     <row r="14" ht="16.35"/>
     <row r="15" customFormat="1" spans="1:5">
-      <c r="A15" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
+      <c r="A15" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" customFormat="1" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="E16" s="6"/>
     </row>
@@ -2198,40 +2280,40 @@
       <c r="A17" s="7">
         <v>0.395833333333333</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="6"/>
     </row>
     <row r="18" customFormat="1" spans="1:5">
       <c r="A18" s="7">
         <v>0.416666666666667</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="5"/>
+      <c r="B18" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="17"/>
       <c r="E18" s="6"/>
     </row>
     <row r="19" customFormat="1" spans="1:5">
       <c r="A19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="19" t="s">
+      <c r="D19" s="17" t="s">
         <v>57</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="E19" s="6"/>
     </row>
@@ -2239,55 +2321,55 @@
       <c r="A20" s="7">
         <v>0.659722222222222</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="6"/>
     </row>
     <row r="21" customFormat="1" spans="1:5">
       <c r="A21" s="4"/>
-      <c r="B21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="B21" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="6"/>
     </row>
     <row r="22" customFormat="1" spans="1:5">
       <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="6"/>
     </row>
     <row r="23" customFormat="1" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="6"/>
     </row>
     <row r="24" customFormat="1" spans="1:5">
       <c r="A24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="21" t="s">
         <v>34</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="16.35" spans="1:5">
@@ -2295,133 +2377,133 @@
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" ht="16.35"/>
     <row r="27" customFormat="1" spans="1:10">
-      <c r="A27" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="18"/>
+      <c r="A27" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" customFormat="1" spans="1:10">
       <c r="A28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="D28" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:10">
+      <c r="A29" s="26">
+        <v>44536</v>
+      </c>
+      <c r="B29" s="27">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="17">
+        <v>1</v>
+      </c>
+      <c r="F29" s="17">
+        <v>1</v>
+      </c>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="28"/>
+    </row>
+    <row r="30" customFormat="1" spans="1:10">
+      <c r="A30" s="11"/>
+      <c r="B30" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="17">
         <v>2</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="1:10">
-      <c r="A29" s="20">
-        <v>44536</v>
-      </c>
-      <c r="B29" s="21">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="5">
-        <v>1</v>
-      </c>
-      <c r="F29" s="5">
-        <v>1</v>
-      </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="23"/>
-    </row>
-    <row r="30" customFormat="1" spans="1:10">
-      <c r="A30" s="22"/>
-      <c r="B30" s="21">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="5">
-        <v>2</v>
-      </c>
-      <c r="F30" s="5">
+      <c r="F30" s="17">
         <v>3</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
-      <c r="J30" s="23"/>
+      <c r="J30" s="28"/>
     </row>
     <row r="31" customFormat="1" spans="1:10">
-      <c r="A31" s="22"/>
-      <c r="B31" s="21">
+      <c r="A31" s="11"/>
+      <c r="B31" s="27">
         <v>0.5625</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="5">
+      <c r="D31" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="17">
         <v>3</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="17">
         <v>3</v>
       </c>
-      <c r="J31" s="23"/>
+      <c r="J31" s="28"/>
     </row>
     <row r="32" customFormat="1" spans="1:10">
-      <c r="A32" s="22"/>
-      <c r="B32" s="21">
+      <c r="A32" s="11"/>
+      <c r="B32" s="27">
         <v>0.659722222222222</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="5">
+      <c r="D32" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="17">
         <v>4</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="17">
         <v>4</v>
       </c>
-      <c r="J32" s="23"/>
+      <c r="J32" s="28"/>
     </row>
     <row r="33" customFormat="1" spans="1:10">
-      <c r="A33" s="22"/>
-      <c r="J33" s="23"/>
+      <c r="A33" s="11"/>
+      <c r="J33" s="28"/>
     </row>
     <row r="34" customFormat="1" ht="16.35" spans="1:10">
       <c r="A34" s="13"/>
@@ -2435,7 +2517,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
-      <c r="J34" s="15"/>
+      <c r="J34" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2472,10 +2554,10 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2483,7 +2565,7 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2492,196 +2574,196 @@
     </row>
     <row r="3" customFormat="1" spans="1:3">
       <c r="A3" s="7"/>
-      <c r="B3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>61</v>
+      <c r="B3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:3">
       <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>12</v>
+      <c r="B4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:3">
       <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:3">
       <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>53</v>
+      <c r="B6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:3">
       <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>53</v>
+      <c r="B7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:3">
       <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="6"/>
     </row>
     <row r="9" customFormat="1" spans="1:3">
-      <c r="A9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="5"/>
+      <c r="A9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="17"/>
       <c r="C9" s="6"/>
     </row>
     <row r="10" customFormat="1" spans="1:3">
       <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="6"/>
     </row>
     <row r="11" customFormat="1" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="B11" s="17"/>
       <c r="C11" s="6"/>
     </row>
     <row r="12" customFormat="1" spans="1:3">
       <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="21"/>
     </row>
     <row r="13" customFormat="1" ht="16.35" spans="1:3">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
+      <c r="C13" s="22"/>
     </row>
     <row r="14" ht="16.35"/>
     <row r="15" customFormat="1" spans="1:5">
-      <c r="A15" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
+      <c r="A15" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" customFormat="1" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="E16" s="6"/>
     </row>
     <row r="17" customFormat="1" spans="1:5">
       <c r="A17" s="7"/>
-      <c r="B17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="5"/>
+      <c r="B17" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="17"/>
       <c r="E17" s="6"/>
     </row>
     <row r="18" customFormat="1" spans="1:5">
       <c r="A18" s="7"/>
-      <c r="B18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="5"/>
+      <c r="B18" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="17"/>
       <c r="E18" s="6"/>
     </row>
     <row r="19" customFormat="1" spans="1:5">
       <c r="A19" s="7">
         <v>0.666666666666667</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="5"/>
+      <c r="B19" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="17"/>
       <c r="E19" s="6"/>
     </row>
     <row r="20" customFormat="1" spans="1:5">
       <c r="A20" s="7"/>
-      <c r="B20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="5"/>
+      <c r="B20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="6"/>
     </row>
     <row r="21" customFormat="1" spans="1:5">
       <c r="A21" s="4"/>
-      <c r="B21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="B21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="6"/>
     </row>
     <row r="22" customFormat="1" spans="1:5">
       <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="6"/>
     </row>
     <row r="23" customFormat="1" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="6"/>
     </row>
     <row r="24" customFormat="1" spans="1:5">
       <c r="A24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="21" t="s">
         <v>34</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="16.35" spans="1:5">
@@ -2689,122 +2771,122 @@
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" ht="16.35"/>
     <row r="27" customFormat="1" spans="1:10">
-      <c r="A27" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="18"/>
+      <c r="A27" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" customFormat="1" spans="1:10">
       <c r="A28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="D28" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:10">
+      <c r="A29" s="26">
+        <v>44536</v>
+      </c>
+      <c r="B29" s="27">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="17">
         <v>2</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="F29" s="17">
         <v>4</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="1:10">
-      <c r="A29" s="20">
-        <v>44536</v>
-      </c>
-      <c r="B29" s="21">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="5">
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="28"/>
+    </row>
+    <row r="30" customFormat="1" spans="1:10">
+      <c r="A30" s="11"/>
+      <c r="B30" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="17">
         <v>2</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F30" s="17">
+        <v>2</v>
+      </c>
+      <c r="J30" s="28"/>
+    </row>
+    <row r="31" customFormat="1" spans="1:10">
+      <c r="A31" s="11"/>
+      <c r="B31" s="27">
+        <v>0.5625</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="17">
         <v>4</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="23"/>
-    </row>
-    <row r="30" customFormat="1" spans="1:10">
-      <c r="A30" s="22"/>
-      <c r="B30" s="21">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="5">
-        <v>2</v>
-      </c>
-      <c r="F30" s="5">
-        <v>2</v>
-      </c>
-      <c r="J30" s="23"/>
-    </row>
-    <row r="31" customFormat="1" spans="1:10">
-      <c r="A31" s="22"/>
-      <c r="B31" s="21">
-        <v>0.5625</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="5">
+      <c r="F31" s="17">
         <v>4</v>
       </c>
-      <c r="F31" s="5">
-        <v>4</v>
-      </c>
-      <c r="J31" s="23"/>
+      <c r="J31" s="28"/>
     </row>
     <row r="32" customFormat="1" spans="1:10">
-      <c r="A32" s="22"/>
-      <c r="B32" s="21"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="J32" s="23"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="27"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="J32" s="28"/>
     </row>
     <row r="33" customFormat="1" spans="1:10">
-      <c r="A33" s="22"/>
-      <c r="J33" s="23"/>
+      <c r="A33" s="11"/>
+      <c r="J33" s="28"/>
     </row>
     <row r="34" customFormat="1" ht="16.35" spans="1:10">
       <c r="A34" s="13"/>
@@ -2816,7 +2898,7 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
-      <c r="J34" s="15"/>
+      <c r="J34" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2853,10 +2935,10 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2864,7 +2946,7 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2873,105 +2955,105 @@
     </row>
     <row r="3" customFormat="1" spans="1:3">
       <c r="A3" s="7"/>
-      <c r="B3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>65</v>
+      <c r="B3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:3">
       <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>66</v>
+      <c r="B4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:3">
       <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>53</v>
+      <c r="B5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:3">
       <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>66</v>
+      <c r="B6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:3">
       <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="9"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="19"/>
     </row>
     <row r="8" customFormat="1" spans="1:3">
       <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="6"/>
     </row>
     <row r="9" customFormat="1" spans="1:3">
-      <c r="A9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="5"/>
+      <c r="A9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="17"/>
       <c r="C9" s="6"/>
     </row>
     <row r="10" customFormat="1" spans="1:3">
       <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="6"/>
     </row>
     <row r="11" customFormat="1" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="B11" s="17"/>
       <c r="C11" s="6"/>
     </row>
     <row r="12" customFormat="1" spans="1:3">
       <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="21"/>
     </row>
     <row r="13" customFormat="1" ht="16.35" spans="1:3">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
+      <c r="C13" s="22"/>
     </row>
     <row r="14" ht="16.35"/>
     <row r="15" customFormat="1" spans="1:5">
-      <c r="A15" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
+      <c r="A15" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" customFormat="1" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="E16" s="6"/>
     </row>
@@ -2979,66 +3061,66 @@
       <c r="A17" s="7">
         <v>0.4375</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="5"/>
+      <c r="B17" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="17"/>
       <c r="E17" s="6"/>
     </row>
     <row r="18" customFormat="1" spans="1:5">
       <c r="A18" s="7">
         <v>0.708333333333333</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="6"/>
     </row>
     <row r="19" customFormat="1" spans="1:5">
       <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="6"/>
     </row>
     <row r="20" customFormat="1" spans="1:5">
       <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="6"/>
     </row>
     <row r="21" customFormat="1" spans="1:5">
       <c r="A21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="6"/>
     </row>
     <row r="22" customFormat="1" spans="1:5">
       <c r="A22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>34</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="16.35" spans="1:5">
@@ -3046,98 +3128,98 @@
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" ht="16.35"/>
     <row r="25" customFormat="1" spans="1:10">
-      <c r="A25" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="18"/>
+      <c r="A25" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="3"/>
     </row>
     <row r="26" customFormat="1" spans="1:10">
       <c r="A26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="D26" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:10">
+      <c r="A27" s="26">
+        <v>44536</v>
+      </c>
+      <c r="B27" s="27">
+        <v>0.4375</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="17">
+        <v>4</v>
+      </c>
+      <c r="F27" s="17">
+        <v>5</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="28"/>
+    </row>
+    <row r="28" customFormat="1" spans="1:10">
+      <c r="A28" s="11"/>
+      <c r="B28" s="27">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="17">
         <v>2</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J26" s="23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:10">
-      <c r="A27" s="20">
-        <v>44536</v>
-      </c>
-      <c r="B27" s="21">
-        <v>0.4375</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="5">
-        <v>4</v>
-      </c>
-      <c r="F27" s="5">
-        <v>5</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="23"/>
-    </row>
-    <row r="28" customFormat="1" spans="1:10">
-      <c r="A28" s="22"/>
-      <c r="B28" s="21">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="5">
+      <c r="F28" s="17">
         <v>2</v>
       </c>
-      <c r="F28" s="5">
-        <v>2</v>
-      </c>
-      <c r="J28" s="23"/>
+      <c r="J28" s="28"/>
     </row>
     <row r="29" customFormat="1" spans="1:10">
-      <c r="A29" s="22"/>
-      <c r="J29" s="23"/>
+      <c r="A29" s="11"/>
+      <c r="J29" s="28"/>
     </row>
     <row r="30" customFormat="1" ht="16.35" spans="1:10">
       <c r="A30" s="13"/>
@@ -3149,7 +3231,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
-      <c r="J30" s="15"/>
+      <c r="J30" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3186,18 +3268,18 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
-        <v>69</v>
+      <c r="C1" s="16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -3206,100 +3288,100 @@
     </row>
     <row r="3" customFormat="1" spans="1:3">
       <c r="A3" s="7"/>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:3">
       <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>70</v>
+      <c r="B4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:3">
       <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>53</v>
+      <c r="B5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:3">
       <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>53</v>
+      <c r="B6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:3">
       <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="6"/>
     </row>
     <row r="8" customFormat="1" spans="1:3">
-      <c r="A8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="5"/>
+      <c r="A8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="17"/>
       <c r="C8" s="6"/>
     </row>
     <row r="9" customFormat="1" spans="1:3">
       <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="6"/>
     </row>
     <row r="10" customFormat="1" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="B10" s="17"/>
       <c r="C10" s="6"/>
     </row>
     <row r="11" customFormat="1" spans="1:3">
       <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" customFormat="1" ht="16.35" spans="1:3">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
+      <c r="C12" s="22"/>
     </row>
     <row r="13" ht="16.35"/>
     <row r="14" customFormat="1" spans="1:5">
-      <c r="A14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
+      <c r="A14" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="E15" s="6"/>
     </row>
@@ -3307,88 +3389,88 @@
       <c r="A16" s="7">
         <v>0.4375</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="5"/>
+      <c r="B16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="17"/>
       <c r="E16" s="6"/>
     </row>
     <row r="17" customFormat="1" spans="1:5">
       <c r="A17" s="7">
         <v>0.583333333333333</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="6"/>
     </row>
     <row r="18" customFormat="1" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="6"/>
     </row>
     <row r="19" customFormat="1" spans="1:5">
       <c r="A19" s="7">
         <v>0.659722222222222</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="6"/>
     </row>
     <row r="20" customFormat="1" spans="1:5">
       <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="6"/>
     </row>
     <row r="21" customFormat="1" spans="1:5">
       <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="6"/>
     </row>
     <row r="22" customFormat="1" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="6"/>
     </row>
     <row r="23" customFormat="1" spans="1:5">
       <c r="A23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>34</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="16.35" spans="1:5">
@@ -3396,128 +3478,128 @@
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" ht="16.35"/>
     <row r="26" customFormat="1" spans="1:10">
-      <c r="A26" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="18"/>
+      <c r="A26" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" customFormat="1" spans="1:10">
       <c r="A27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="D27" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:10">
+      <c r="A28" s="26">
+        <v>44536</v>
+      </c>
+      <c r="B28" s="27">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="17">
+        <v>1</v>
+      </c>
+      <c r="F28" s="17">
+        <v>1</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="28"/>
+    </row>
+    <row r="29" customFormat="1" spans="1:10">
+      <c r="A29" s="11"/>
+      <c r="B29" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="17">
         <v>2</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="F29" s="17">
+        <v>3</v>
+      </c>
+      <c r="J29" s="28"/>
+    </row>
+    <row r="30" customFormat="1" spans="1:10">
+      <c r="A30" s="11"/>
+      <c r="B30" s="27">
+        <v>0.5625</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="17">
+        <v>3</v>
+      </c>
+      <c r="F30" s="17">
+        <v>3</v>
+      </c>
+      <c r="J30" s="28"/>
+    </row>
+    <row r="31" customFormat="1" spans="1:10">
+      <c r="A31" s="11"/>
+      <c r="B31" s="27"/>
+      <c r="D31" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="17">
         <v>4</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J27" s="23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:10">
-      <c r="A28" s="20">
-        <v>44536</v>
-      </c>
-      <c r="B28" s="21">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="5">
-        <v>1</v>
-      </c>
-      <c r="F28" s="5">
-        <v>1</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="23"/>
-    </row>
-    <row r="29" customFormat="1" spans="1:10">
-      <c r="A29" s="22"/>
-      <c r="B29" s="21">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="5">
-        <v>2</v>
-      </c>
-      <c r="F29" s="5">
-        <v>3</v>
-      </c>
-      <c r="J29" s="23"/>
-    </row>
-    <row r="30" customFormat="1" spans="1:10">
-      <c r="A30" s="22"/>
-      <c r="B30" s="21">
-        <v>0.5625</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="5">
-        <v>3</v>
-      </c>
-      <c r="F30" s="5">
-        <v>3</v>
-      </c>
-      <c r="J30" s="23"/>
-    </row>
-    <row r="31" customFormat="1" spans="1:10">
-      <c r="A31" s="22"/>
-      <c r="B31" s="21"/>
-      <c r="D31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="5">
+      <c r="F31" s="17">
         <v>4</v>
       </c>
-      <c r="F31" s="5">
-        <v>4</v>
-      </c>
-      <c r="J31" s="23"/>
+      <c r="J31" s="28"/>
     </row>
     <row r="32" customFormat="1" spans="1:10">
-      <c r="A32" s="22"/>
-      <c r="J32" s="23"/>
+      <c r="A32" s="11"/>
+      <c r="J32" s="28"/>
     </row>
     <row r="33" customFormat="1" ht="16.35" spans="1:10">
       <c r="A33" s="13"/>
@@ -3529,7 +3611,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
-      <c r="J33" s="15"/>
+      <c r="J33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3551,7 +3633,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15.6"/>
@@ -3566,18 +3648,18 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
-        <v>69</v>
+      <c r="C1" s="16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -3586,175 +3668,175 @@
     </row>
     <row r="3" customFormat="1" spans="1:3">
       <c r="A3" s="7"/>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>72</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:3">
       <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="17" t="s">
         <v>73</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:3">
       <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>73</v>
+      <c r="B5" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:3">
       <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="9"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="19"/>
     </row>
     <row r="7" customFormat="1" spans="1:3">
       <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="6"/>
     </row>
     <row r="8" customFormat="1" spans="1:3">
-      <c r="A8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="5"/>
+      <c r="A8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="17"/>
       <c r="C8" s="6"/>
     </row>
     <row r="9" customFormat="1" spans="1:3">
       <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="6"/>
     </row>
     <row r="10" customFormat="1" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="B10" s="17"/>
       <c r="C10" s="6"/>
     </row>
     <row r="11" customFormat="1" spans="1:3">
       <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" customFormat="1" ht="16.35" spans="1:3">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
+      <c r="C12" s="22"/>
     </row>
     <row r="13" ht="16.35"/>
     <row r="14" customFormat="1" spans="1:5">
-      <c r="A14" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
+      <c r="A14" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="E15" s="6"/>
     </row>
     <row r="16" customFormat="1" spans="1:5">
       <c r="A16" s="7"/>
-      <c r="B16" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="5"/>
+      <c r="B16" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="17"/>
       <c r="E16" s="6"/>
     </row>
     <row r="17" customFormat="1" spans="1:5">
       <c r="A17" s="7"/>
-      <c r="B17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="6"/>
     </row>
     <row r="18" customFormat="1" spans="1:5">
       <c r="A18" s="7"/>
-      <c r="B18" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="5"/>
+      <c r="B18" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="6"/>
     </row>
     <row r="19" customFormat="1" spans="1:5">
       <c r="A19" s="7"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="6"/>
     </row>
     <row r="20" customFormat="1" spans="1:5">
       <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="6"/>
     </row>
     <row r="21" customFormat="1" spans="1:5">
       <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="6"/>
     </row>
     <row r="22" customFormat="1" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="6"/>
     </row>
     <row r="23" customFormat="1" spans="1:5">
       <c r="A23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>34</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="16.35" spans="1:5">
@@ -3762,128 +3844,128 @@
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" ht="16.35"/>
     <row r="26" customFormat="1" spans="1:10">
-      <c r="A26" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="18"/>
+      <c r="A26" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" customFormat="1" spans="1:10">
       <c r="A27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="D27" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:10">
+      <c r="A28" s="26">
+        <v>44536</v>
+      </c>
+      <c r="B28" s="27">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="17">
+        <v>1</v>
+      </c>
+      <c r="F28" s="17">
+        <v>1</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="28"/>
+    </row>
+    <row r="29" customFormat="1" spans="1:10">
+      <c r="A29" s="11"/>
+      <c r="B29" s="27">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="17">
         <v>2</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="F29" s="17">
+        <v>3</v>
+      </c>
+      <c r="J29" s="28"/>
+    </row>
+    <row r="30" customFormat="1" spans="1:10">
+      <c r="A30" s="11"/>
+      <c r="B30" s="27">
+        <v>0.5625</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="17">
+        <v>3</v>
+      </c>
+      <c r="F30" s="17">
+        <v>3</v>
+      </c>
+      <c r="J30" s="28"/>
+    </row>
+    <row r="31" customFormat="1" spans="1:10">
+      <c r="A31" s="11"/>
+      <c r="B31" s="27"/>
+      <c r="D31" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="17">
         <v>4</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J27" s="23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:10">
-      <c r="A28" s="20">
-        <v>44536</v>
-      </c>
-      <c r="B28" s="21">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="5">
-        <v>1</v>
-      </c>
-      <c r="F28" s="5">
-        <v>1</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="23"/>
-    </row>
-    <row r="29" customFormat="1" spans="1:10">
-      <c r="A29" s="22"/>
-      <c r="B29" s="21">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="5">
-        <v>2</v>
-      </c>
-      <c r="F29" s="5">
-        <v>3</v>
-      </c>
-      <c r="J29" s="23"/>
-    </row>
-    <row r="30" customFormat="1" spans="1:10">
-      <c r="A30" s="22"/>
-      <c r="B30" s="21">
-        <v>0.5625</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="5">
-        <v>3</v>
-      </c>
-      <c r="F30" s="5">
-        <v>3</v>
-      </c>
-      <c r="J30" s="23"/>
-    </row>
-    <row r="31" customFormat="1" spans="1:10">
-      <c r="A31" s="22"/>
-      <c r="B31" s="21"/>
-      <c r="D31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="5">
+      <c r="F31" s="17">
         <v>4</v>
       </c>
-      <c r="F31" s="5">
-        <v>4</v>
-      </c>
-      <c r="J31" s="23"/>
+      <c r="J31" s="28"/>
     </row>
     <row r="32" customFormat="1" spans="1:10">
-      <c r="A32" s="22"/>
-      <c r="J32" s="23"/>
+      <c r="A32" s="11"/>
+      <c r="J32" s="28"/>
     </row>
     <row r="33" customFormat="1" ht="16.35" spans="1:10">
       <c r="A33" s="13"/>
@@ -3895,7 +3977,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
-      <c r="J33" s="15"/>
+      <c r="J33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3909,4 +3991,642 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="20.3" customWidth="1"/>
+    <col min="2" max="2" width="51.6" customWidth="1"/>
+    <col min="3" max="3" width="35.8" customWidth="1"/>
+    <col min="4" max="4" width="12.3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="7">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="11"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" ht="16.35" spans="1:4">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" ht="16.35"/>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="7">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="7">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="7">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="7">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="11"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" ht="16.35" spans="1:4">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" ht="16.35"/>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="7">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="7">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="7">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="7">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="7">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="7">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="11"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" ht="16.35" spans="1:4">
+      <c r="A47" s="13"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="15"/>
+    </row>
+    <row r="48" ht="16.35"/>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="7">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="7">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="7">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="7">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="11"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="6"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="11"/>
+      <c r="D62" s="6"/>
+    </row>
+    <row r="63" ht="16.35" spans="1:4">
+      <c r="A63" s="13"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A59:C59"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>